--- a/data/trans_dic/ProbViv_temp-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_temp-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.6386302165152448</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6431000482280007</v>
+        <v>0.6431000482280008</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.599709256813817</v>
+        <v>0.5896779051975897</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6014478814403659</v>
+        <v>0.6034610516885256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6130532464286026</v>
+        <v>0.612780043438791</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6951330800322403</v>
+        <v>0.6938527204572869</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6712342915344777</v>
+        <v>0.6739470529971964</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6712988081894105</v>
+        <v>0.6700492626846691</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.4917223904699252</v>
+        <v>0.4917223904699253</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.5026811608763071</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4568627030407013</v>
+        <v>0.4551718822292256</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.47861444625899</v>
+        <v>0.4760841881276538</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.476064627121883</v>
+        <v>0.4746364651511373</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5270079316639045</v>
+        <v>0.5283081879975334</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5294664590861718</v>
+        <v>0.5301393776757923</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5193566501885671</v>
+        <v>0.5200486215665755</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.3918968585559884</v>
+        <v>0.3918968585559883</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3614486955957942</v>
+        <v>0.3614486955957943</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.3766643268370671</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3614725252883637</v>
+        <v>0.3604079873372867</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.334509835349355</v>
+        <v>0.3351564840534781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3559911610745398</v>
+        <v>0.3556682732490931</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4275801457000016</v>
+        <v>0.4245827855952688</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3868473066831795</v>
+        <v>0.3888387927020441</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3982106559146433</v>
+        <v>0.3963526761496017</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.200218265375409</v>
+        <v>0.2024488879000842</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1953119060280779</v>
+        <v>0.1938491468631833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2055988593692324</v>
+        <v>0.2058416950803884</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2602319961257948</v>
+        <v>0.260112683952673</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2430712441626522</v>
+        <v>0.2415164187518824</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2423438084086852</v>
+        <v>0.2425229588851602</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.410516268975284</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4150462485674739</v>
+        <v>0.415046248567474</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.4128494516365608</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3936719040275781</v>
+        <v>0.3930890889619079</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4012285519105151</v>
+        <v>0.4004691537867409</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4006659996404803</v>
+        <v>0.4000953077162457</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4296072997192193</v>
+        <v>0.429249389248087</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4306401328489825</v>
+        <v>0.4291647761209434</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4249235574317615</v>
+        <v>0.4234774354216602</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>299098</v>
+        <v>294095</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>375051</v>
+        <v>376306</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>688042</v>
+        <v>687735</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>346690</v>
+        <v>346051</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>418568</v>
+        <v>420260</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>753412</v>
+        <v>752010</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>438651</v>
+        <v>437027</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>534061</v>
+        <v>531238</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>988304</v>
+        <v>985339</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>506000</v>
+        <v>507248</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>590805</v>
+        <v>591555</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1078177</v>
+        <v>1079614</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>378273</v>
+        <v>377159</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>350447</v>
+        <v>351124</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>745489</v>
+        <v>744812</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>447454</v>
+        <v>444317</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>405277</v>
+        <v>407364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>833901</v>
+        <v>830010</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>195399</v>
+        <v>197576</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>177801</v>
+        <v>176470</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>387816</v>
+        <v>388274</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>253968</v>
+        <v>253852</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>221279</v>
+        <v>219863</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>457127</v>
+        <v>457465</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1370484</v>
+        <v>1368455</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1483509</v>
+        <v>1480701</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2876261</v>
+        <v>2872165</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1495585</v>
+        <v>1494339</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1592256</v>
+        <v>1586801</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3050399</v>
+        <v>3040018</v>
       </c>
     </row>
     <row r="24">
